--- a/Guild Digital/Example CHT application/forms/contact/health_center-create.xlsx
+++ b/Guild Digital/Example CHT application/forms/contact/health_center-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t xml:space="preserve">contact:health_center:create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-06</t>
   </si>
 </sst>
 </file>
@@ -471,7 +468,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -495,45 +492,60 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF843C0B"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF843C0B"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -605,29 +617,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -638,8 +634,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -650,8 +650,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -662,19 +662,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,8 +694,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -786,244 +810,176 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1052"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="64.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="49.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="1" width="7.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="15.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="n">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -1048,87 +1004,81 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1139,34 +1089,12 @@
       <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
@@ -1178,84 +1106,34 @@
       <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
       <c r="I17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
       <c r="I18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
@@ -1264,33 +1142,12 @@
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -1299,33 +1156,12 @@
       <c r="B20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
       <c r="I20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
@@ -1334,193 +1170,107 @@
       <c r="B21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
       <c r="I21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
       <c r="K24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
     </row>
     <row r="29" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
@@ -1638,7 +1388,7 @@
       <c r="J33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>22</v>
       </c>
@@ -1653,14 +1403,14 @@
       <c r="J34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1671,34 +1421,12 @@
       <c r="B36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
@@ -1707,34 +1435,12 @@
       <c r="B37" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
@@ -1743,34 +1449,12 @@
       <c r="B38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
@@ -1779,34 +1463,12 @@
       <c r="B39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
@@ -1815,34 +1477,12 @@
       <c r="B40" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
@@ -1851,43 +1491,21 @@
       <c r="B41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1895,21 +1513,21 @@
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
@@ -1936,43 +1554,40 @@
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
@@ -1993,7 +1608,7 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -2002,13 +1617,9 @@
       <c r="C47" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -2029,7 +1640,7 @@
       <c r="Z47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B48" s="14" t="s">
@@ -2038,13 +1649,9 @@
       <c r="C48" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
@@ -2065,7 +1672,7 @@
       <c r="Z48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -2074,13 +1681,9 @@
       <c r="C49" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -2101,16 +1704,11 @@
       <c r="Z49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -2131,23 +1729,21 @@
       <c r="Z50" s="15"/>
     </row>
     <row r="51" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2174,9 +1770,6 @@
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3147,15 +2740,6 @@
     <row r="1058" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1059" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1060" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A28">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -3198,7 +2782,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
@@ -3284,24 +2868,24 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="19" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="21" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3324,10 +2908,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.36"/>
@@ -3339,54 +2923,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="23" t="n">
+        <f aca="true">NOW()</f>
+        <v>45263.5849371316</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
